--- a/Practice/Files/Debt.xlsx
+++ b/Practice/Files/Debt.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <x:si>
     <x:t>ФИО</x:t>
   </x:si>
@@ -32,24 +32,6 @@
   </x:si>
   <x:si>
     <x:t>Количество книг</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Порошенко Петр Алексеевич</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>44112684000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>PorohP@gmail.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>29.04.2019</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -120,7 +102,7 @@
       </x:diagonal>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="4">
+  <x:cellStyleXfs count="3">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -130,11 +112,8 @@
     <x:xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="4">
+  <x:cellXfs count="3">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
@@ -144,10 +123,6 @@
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -446,16 +421,16 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:F2"/>
+  <x:dimension ref="A1:F1"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="27.810625" style="1" customWidth="1"/>
+    <x:col min="1" max="1" width="6.140625" style="1" customWidth="1"/>
     <x:col min="2" max="2" width="11.300625" style="1" customWidth="1"/>
-    <x:col min="3" max="3" width="13.520625" style="1" customWidth="1"/>
-    <x:col min="4" max="4" width="18.740625" style="1" customWidth="1"/>
+    <x:col min="3" max="3" width="9.770625" style="1" customWidth="1"/>
+    <x:col min="4" max="4" width="6.630625" style="1" customWidth="1"/>
     <x:col min="5" max="5" width="18.060625" style="1" customWidth="1"/>
     <x:col min="6" max="6" width="16.910625" style="1" customWidth="1"/>
   </x:cols>
@@ -478,26 +453,6 @@
       </x:c>
       <x:c r="F1" s="2" t="s">
         <x:v>5</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="2" spans="1:6">
-      <x:c r="A2" s="3" t="s">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="B2" s="3" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="C2" s="3" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="D2" s="3" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="E2" s="3" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="F2" s="3" t="s">
-        <x:v>11</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
